--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Proyecto_Integrador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17221DED-48C2-468C-9198-50AB20CDE9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D85CFF-F924-416F-A43B-94D450D27CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{527B4B78-61F6-474D-8EC1-9DBD58E59947}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="165">
   <si>
     <t>Model</t>
   </si>
@@ -1062,7 +1062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1392,21 +1392,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A30D74-A5ED-4EC4-95E1-3DF7F4601790}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -2870,8 +2869,741 @@
         <v>0.51036499999999996</v>
       </c>
     </row>
+    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="12">
+        <v>0</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="6">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6">
+        <v>1</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1</v>
+      </c>
+      <c r="I44" s="6">
+        <v>1</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0.38254100000000002</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0.38437500000000002</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0.34963100000000003</v>
+      </c>
+      <c r="N44" s="7">
+        <v>0.68736799999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="14">
+        <v>1</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0.99947900000000001</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.99974099999999999</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.99921899999999997</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0.99947600000000003</v>
+      </c>
+      <c r="I45" s="6">
+        <v>0.99947900000000001</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.49375000000000002</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0.412219</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0.35312500000000002</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0.34712500000000002</v>
+      </c>
+      <c r="N45" s="7">
+        <v>0.56770799999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="12">
+        <v>2</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0.56093800000000005</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0.36783199999999999</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0.34140599999999999</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0.30168099999999998</v>
+      </c>
+      <c r="I46" s="8">
+        <v>0.92614300000000005</v>
+      </c>
+      <c r="J46" s="8">
+        <v>0.55416699999999997</v>
+      </c>
+      <c r="K46" s="8">
+        <v>0.35704000000000002</v>
+      </c>
+      <c r="L46" s="8">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="M46" s="8">
+        <v>0.28754400000000002</v>
+      </c>
+      <c r="N46" s="9">
+        <v>0.69401000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="14">
+        <v>3</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6">
+        <v>1</v>
+      </c>
+      <c r="H47" s="6">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6">
+        <v>1</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0.57291700000000001</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0.474273</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0.41770800000000002</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0.40425</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0.69852000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="3">
+        <v>4</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+      <c r="F48" s="10">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10">
+        <v>1</v>
+      </c>
+      <c r="H48" s="10">
+        <v>1</v>
+      </c>
+      <c r="I48" s="10">
+        <v>1</v>
+      </c>
+      <c r="J48" s="10">
+        <v>0.57708300000000001</v>
+      </c>
+      <c r="K48" s="10">
+        <v>0.47994300000000001</v>
+      </c>
+      <c r="L48" s="10">
+        <v>0.42812499999999998</v>
+      </c>
+      <c r="M48" s="10">
+        <v>0.41859200000000002</v>
+      </c>
+      <c r="N48" s="11">
+        <v>0.70377199999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="26"/>
+    </row>
+    <row r="50" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="12">
+        <v>0</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
+      <c r="G51" s="6">
+        <v>1</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1</v>
+      </c>
+      <c r="I51" s="6">
+        <v>1</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0.56458299999999995</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0.45939400000000002</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0.39479199999999998</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0.363871</v>
+      </c>
+      <c r="N51" s="7">
+        <v>0.69856600000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="14">
+        <v>1</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.62447900000000001</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.59318300000000002</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.59817699999999996</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0.58709900000000004</v>
+      </c>
+      <c r="I52" s="6">
+        <v>0.83180900000000002</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0.46250000000000002</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0.42902499999999999</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0.408333</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0.40757399999999999</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0.68912300000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="12">
+        <v>2</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.620313</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.63775300000000001</v>
+      </c>
+      <c r="G53" s="8">
+        <v>0.43255199999999999</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0.41366399999999998</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0.93269299999999999</v>
+      </c>
+      <c r="J53" s="8">
+        <v>0.58125000000000004</v>
+      </c>
+      <c r="K53" s="8">
+        <v>0.43116100000000002</v>
+      </c>
+      <c r="L53" s="8">
+        <v>0.38645800000000002</v>
+      </c>
+      <c r="M53" s="8">
+        <v>0.34787499999999999</v>
+      </c>
+      <c r="N53" s="9">
+        <v>0.728572</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="14">
+        <v>3</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1</v>
+      </c>
+      <c r="G54" s="6">
+        <v>1</v>
+      </c>
+      <c r="H54" s="6">
+        <v>1</v>
+      </c>
+      <c r="I54" s="6">
+        <v>1</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0.56874999999999998</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0.46154000000000001</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0.419792</v>
+      </c>
+      <c r="M54" s="6">
+        <v>0.40635199999999999</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0.71099000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="3">
+        <v>4</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1</v>
+      </c>
+      <c r="H55" s="10">
+        <v>1</v>
+      </c>
+      <c r="I55" s="10">
+        <v>1</v>
+      </c>
+      <c r="J55" s="10">
+        <v>0.56666700000000003</v>
+      </c>
+      <c r="K55" s="10">
+        <v>0.48065600000000003</v>
+      </c>
+      <c r="L55" s="10">
+        <v>0.43125000000000002</v>
+      </c>
+      <c r="M55" s="10">
+        <v>0.422458</v>
+      </c>
+      <c r="N55" s="11">
+        <v>0.72570299999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="26"/>
+    </row>
+    <row r="57" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="B57" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="24" x14ac:dyDescent="0.25">
+      <c r="A58" s="26"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="12">
+        <v>0</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1</v>
+      </c>
+      <c r="G58" s="6">
+        <v>1</v>
+      </c>
+      <c r="H58" s="6">
+        <v>1</v>
+      </c>
+      <c r="I58" s="6">
+        <v>1</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0.466667</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0.26154300000000003</v>
+      </c>
+      <c r="L58" s="6">
+        <v>0.247917</v>
+      </c>
+      <c r="M58" s="6">
+        <v>0.19411200000000001</v>
+      </c>
+      <c r="N58" s="7">
+        <v>0.47178799999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="14">
+        <v>1</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="6">
+        <v>0.36770799999999998</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0.44591799999999998</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0.40468700000000002</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0.34834300000000001</v>
+      </c>
+      <c r="I59" s="6">
+        <v>0.68458300000000005</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0.27708300000000002</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0.27029399999999998</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0.28854200000000002</v>
+      </c>
+      <c r="M59" s="6">
+        <v>0.23202200000000001</v>
+      </c>
+      <c r="N59" s="7">
+        <v>0.52786500000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="12">
+        <v>2</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0.50052099999999999</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0.175065</v>
+      </c>
+      <c r="G60" s="8">
+        <v>0.25078099999999998</v>
+      </c>
+      <c r="H60" s="8">
+        <v>0.168263</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0.44941399999999998</v>
+      </c>
+      <c r="J60" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="K60" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="L60" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="M60" s="8">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="N60" s="9">
+        <v>0.50053800000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="26"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="14">
+        <v>3</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+      <c r="F61" s="6">
+        <v>1</v>
+      </c>
+      <c r="G61" s="6">
+        <v>1</v>
+      </c>
+      <c r="H61" s="6">
+        <v>1</v>
+      </c>
+      <c r="I61" s="6">
+        <v>1</v>
+      </c>
+      <c r="J61" s="6">
+        <v>0.41666700000000001</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0.21215800000000001</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0.23333300000000001</v>
+      </c>
+      <c r="M61" s="6">
+        <v>0.20231499999999999</v>
+      </c>
+      <c r="N61" s="7">
+        <v>0.49016900000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="27"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="3">
+        <v>4</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" s="10">
+        <v>1</v>
+      </c>
+      <c r="F62" s="10">
+        <v>1</v>
+      </c>
+      <c r="G62" s="10">
+        <v>1</v>
+      </c>
+      <c r="H62" s="10">
+        <v>1</v>
+      </c>
+      <c r="I62" s="10">
+        <v>1</v>
+      </c>
+      <c r="J62" s="10">
+        <v>0.38958300000000001</v>
+      </c>
+      <c r="K62" s="10">
+        <v>0.20954400000000001</v>
+      </c>
+      <c r="L62" s="10">
+        <v>0.22395799999999999</v>
+      </c>
+      <c r="M62" s="10">
+        <v>0.20152100000000001</v>
+      </c>
+      <c r="N62" s="11">
+        <v>0.48755199999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="12">
+    <mergeCell ref="A43:A62"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B50:B55"/>
+    <mergeCell ref="B57:B62"/>
     <mergeCell ref="B1:B6"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B15:B20"/>
